--- a/untitled1.xlsx
+++ b/untitled1.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,6 +470,23 @@
       <c r="C3" t="inlineStr">
         <is>
           <t>rrr</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>rrrr</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>rrrr</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>rrrr</t>
         </is>
       </c>
     </row>

--- a/untitled1.xlsx
+++ b/untitled1.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,6 +487,74 @@
       <c r="C4" t="inlineStr">
         <is>
           <t>rrrr</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>p-name</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>p_description</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>p_price</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>money</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>mm</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>mm</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>p-name</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>p_description</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>p_price</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>odero</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>wya</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>1234</t>
         </is>
       </c>
     </row>
